--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EB3D6-102C-4E16-B6E2-1D43302C81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE0CBA-FB46-4323-A0C5-ABFABDE029C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1152,7 @@
         <v>58</v>
       </c>
       <c r="G15" s="8">
-        <v>-1.2343999999999999</v>
+        <v>-1.2344999999999999</v>
       </c>
       <c r="H15" s="7">
         <v>202205</v>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1611,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="8">
-        <v>916.85950000000003</v>
+        <v>916.8596</v>
       </c>
       <c r="H11" s="7">
         <v>202203</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE0CBA-FB46-4323-A0C5-ABFABDE029C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8B87C-EB72-44C2-A1B9-D0426334A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
     <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
   <si>
     <t>Steps</t>
   </si>
@@ -152,9 +151,6 @@
     <t>TestSBO_Replay_Monthly/EventConfigurations.json</t>
   </si>
   <si>
-    <t>TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly</t>
-  </si>
-  <si>
     <t>TestSBO_Replay_Monthly/Activity/ActivityData.xlsx</t>
   </si>
   <si>
@@ -170,48 +166,6 @@
     <t>TestSBO_Replay_Monthly/Activity/ActivityData_D1.xlsx</t>
   </si>
   <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>UPB</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>accrual</t>
-  </si>
-  <si>
-    <t>Remit</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Adjustment</t>
-  </si>
-  <si>
-    <t>Accrual</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>DRAW</t>
   </si>
   <si>
@@ -222,6 +176,9 @@
   </si>
   <si>
     <t>{"instrumentId": "ARWK-RAAM"}</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -304,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -317,7 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -517,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -568,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -590,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -601,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -623,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -645,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -667,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -764,8 +722,8 @@
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>58</v>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="8">
         <v>100</v>
@@ -796,8 +754,8 @@
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>58</v>
+      <c r="F4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="8">
         <v>100000</v>
@@ -828,8 +786,8 @@
       <c r="E5" s="9">
         <v>20220228</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>58</v>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="8">
         <v>777.77779999999996</v>
@@ -852,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>30</v>
@@ -860,8 +818,8 @@
       <c r="E6" s="9">
         <v>20220325</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>58</v>
+      <c r="F6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="8">
         <v>7000</v>
@@ -892,8 +850,8 @@
       <c r="E7" s="9">
         <v>20220315</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>58</v>
+      <c r="F7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="8">
         <v>-1266.6667</v>
@@ -924,8 +882,8 @@
       <c r="E8" s="9">
         <v>20220315</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>58</v>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="8">
         <v>-233.33330000000001</v>
@@ -956,8 +914,8 @@
       <c r="E9" s="9">
         <v>20220315</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>58</v>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="8">
         <v>1500</v>
@@ -988,8 +946,8 @@
       <c r="E10" s="9">
         <v>20220331</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>58</v>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="8">
         <v>873.6203999999999</v>
@@ -1020,8 +978,8 @@
       <c r="E11" s="9">
         <v>20220420</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="8">
         <v>-1048.2221999999999</v>
@@ -1052,8 +1010,8 @@
       <c r="E12" s="9">
         <v>20220420</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>58</v>
+      <c r="F12" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="8">
         <v>-951.77779999999996</v>
@@ -1084,8 +1042,8 @@
       <c r="E13" s="9">
         <v>20220420</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>58</v>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="8">
         <v>1500</v>
@@ -1116,8 +1074,8 @@
       <c r="E14" s="9">
         <v>20220430</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>58</v>
+      <c r="F14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G14" s="8">
         <v>886.81399999999996</v>
@@ -1148,8 +1106,8 @@
       <c r="E15" s="9">
         <v>20220531</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>58</v>
+      <c r="F15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G15" s="8">
         <v>-1.2344999999999999</v>
@@ -1180,8 +1138,8 @@
       <c r="E16" s="9">
         <v>20220531</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>58</v>
+      <c r="F16" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="8">
         <v>-404</v>
@@ -1212,8 +1170,8 @@
       <c r="E17" s="9">
         <v>20220222</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="8">
         <v>400</v>
@@ -1244,8 +1202,8 @@
       <c r="E18" s="9">
         <v>20220531</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>58</v>
+      <c r="F18" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="8">
         <v>907.70489999999995</v>
@@ -1282,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -1351,8 +1309,8 @@
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G3" s="8">
         <v>100</v>
@@ -1383,8 +1341,8 @@
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>59</v>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="8">
         <v>100000</v>
@@ -1407,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
@@ -1415,8 +1373,8 @@
       <c r="E5" s="9">
         <v>20220215</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>59</v>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="8">
         <v>5000</v>
@@ -1447,8 +1405,8 @@
       <c r="E6" s="9">
         <v>20220228</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>59</v>
+      <c r="F6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="8">
         <v>797.22219999999993</v>
@@ -1471,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>30</v>
@@ -1479,8 +1437,8 @@
       <c r="E7" s="9">
         <v>20220325</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>59</v>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="8">
         <v>7000</v>
@@ -1511,8 +1469,8 @@
       <c r="E8" s="9">
         <v>20220315</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>59</v>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="8">
         <v>-1305.5555999999999</v>
@@ -1543,8 +1501,8 @@
       <c r="E9" s="9">
         <v>20220315</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>59</v>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="8">
         <v>-194.4444</v>
@@ -1575,8 +1533,8 @@
       <c r="E10" s="9">
         <v>20220315</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>59</v>
+      <c r="F10" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G10" s="8">
         <v>1500</v>
@@ -1607,8 +1565,8 @@
       <c r="E11" s="9">
         <v>20220331</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>59</v>
+      <c r="F11" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="8">
         <v>916.8596</v>
@@ -1639,8 +1597,8 @@
       <c r="E12" s="9">
         <v>20220420</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>59</v>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G12" s="8">
         <v>-1098.6111000000001</v>
@@ -1671,8 +1629,8 @@
       <c r="E13" s="9">
         <v>20220420</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>59</v>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="8">
         <v>-901.38890000000004</v>
@@ -1703,8 +1661,8 @@
       <c r="E14" s="9">
         <v>20220420</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>59</v>
+      <c r="F14" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G14" s="8">
         <v>1500</v>
@@ -1735,8 +1693,8 @@
       <c r="E15" s="9">
         <v>20220430</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>59</v>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G15" s="8">
         <v>928.95869999999991</v>
@@ -1767,8 +1725,8 @@
       <c r="E16" s="9">
         <v>20220531</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>59</v>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G16" s="8">
         <v>-1.2343999999999999</v>
@@ -1799,8 +1757,8 @@
       <c r="E17" s="9">
         <v>20220531</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>59</v>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G17" s="8">
         <v>-404</v>
@@ -1831,8 +1789,8 @@
       <c r="E18" s="9">
         <v>20220222</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>59</v>
+      <c r="F18" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="8">
         <v>400</v>
@@ -1863,8 +1821,8 @@
       <c r="E19" s="9">
         <v>20220531</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>59</v>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="8">
         <v>951.52919999999995</v>
@@ -1887,1244 +1845,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3B180-A8EC-4770-8265-3AD0A58E2E82}">
-  <dimension ref="A1:Q40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>44592</v>
-      </c>
-      <c r="B2" s="10">
-        <v>44592</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="8">
-        <v>100</v>
-      </c>
-      <c r="O2" s="7">
-        <v>202201</v>
-      </c>
-      <c r="P2" s="7">
-        <v>202201</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>44592</v>
-      </c>
-      <c r="B3" s="10">
-        <v>44592</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="8">
-        <v>100000</v>
-      </c>
-      <c r="O3" s="7">
-        <v>202201</v>
-      </c>
-      <c r="P3" s="7">
-        <v>202201</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>44620</v>
-      </c>
-      <c r="B4" s="10">
-        <v>44606</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4">
-        <v>388.88889999999998</v>
-      </c>
-      <c r="H4" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="9">
-        <v>20220215</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="8">
-        <v>5000</v>
-      </c>
-      <c r="O4" s="7">
-        <v>202202</v>
-      </c>
-      <c r="P4" s="7">
-        <v>202202</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>44620</v>
-      </c>
-      <c r="B5" s="10">
-        <v>44607</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="8">
-        <v>797.22219999999993</v>
-      </c>
-      <c r="O5" s="7">
-        <v>202202</v>
-      </c>
-      <c r="P5" s="7">
-        <v>202202</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>44620</v>
-      </c>
-      <c r="B6" s="10">
-        <v>44620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6">
-        <v>408.33330000000001</v>
-      </c>
-      <c r="H6" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="9">
-        <v>20220325</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7000</v>
-      </c>
-      <c r="O6" s="7">
-        <v>202203</v>
-      </c>
-      <c r="P6" s="7">
-        <v>202203</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B7" s="10">
-        <v>44634</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>408.33330000000001</v>
-      </c>
-      <c r="H7" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="8">
-        <v>-1305.5555999999999</v>
-      </c>
-      <c r="O7" s="7">
-        <v>202203</v>
-      </c>
-      <c r="P7" s="7">
-        <v>202203</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B8" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="8">
-        <v>-194.4444</v>
-      </c>
-      <c r="O8" s="7">
-        <v>202203</v>
-      </c>
-      <c r="P8" s="7">
-        <v>202203</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B9" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>-194.4444</v>
-      </c>
-      <c r="H9" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1500</v>
-      </c>
-      <c r="O9" s="7">
-        <v>202203</v>
-      </c>
-      <c r="P9" s="7">
-        <v>202203</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B10" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10">
-        <v>-1305.5555999999999</v>
-      </c>
-      <c r="H10" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="8">
-        <v>916.85950000000003</v>
-      </c>
-      <c r="O10" s="7">
-        <v>202203</v>
-      </c>
-      <c r="P10" s="7">
-        <v>202203</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44644</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11">
-        <v>291.12650000000002</v>
-      </c>
-      <c r="H11" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="8">
-        <v>-1098.6111000000001</v>
-      </c>
-      <c r="O11" s="7">
-        <v>202204</v>
-      </c>
-      <c r="P11" s="7">
-        <v>202204</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44645</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>7000</v>
-      </c>
-      <c r="H12" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="8">
-        <v>-901.38890000000004</v>
-      </c>
-      <c r="O12" s="7">
-        <v>202204</v>
-      </c>
-      <c r="P12" s="7">
-        <v>202204</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>44651</v>
-      </c>
-      <c r="B13" s="10">
-        <v>44651</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13">
-        <v>217.3997</v>
-      </c>
-      <c r="H13" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1500</v>
-      </c>
-      <c r="O13" s="7">
-        <v>202204</v>
-      </c>
-      <c r="P13" s="7">
-        <v>202204</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B14" s="10">
-        <v>44670</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14">
-        <v>590.08489999999995</v>
-      </c>
-      <c r="H14" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="8">
-        <v>928.95869999999991</v>
-      </c>
-      <c r="O14" s="7">
-        <v>202204</v>
-      </c>
-      <c r="P14" s="7">
-        <v>202204</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B15" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="8">
-        <v>-1.2343999999999999</v>
-      </c>
-      <c r="O15" s="7">
-        <v>202205</v>
-      </c>
-      <c r="P15" s="7">
-        <v>202205</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16">
-        <v>-901.38890000000004</v>
-      </c>
-      <c r="H16" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="8">
-        <v>-404</v>
-      </c>
-      <c r="O16" s="7">
-        <v>202205</v>
-      </c>
-      <c r="P16" s="7">
-        <v>202205</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B17" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>-1098.6111000000001</v>
-      </c>
-      <c r="H17" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="9">
-        <v>20220222</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="8">
-        <v>400</v>
-      </c>
-      <c r="O17" s="7">
-        <v>202205</v>
-      </c>
-      <c r="P17" s="7">
-        <v>202205</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>44681</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44681</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>338.87380000000002</v>
-      </c>
-      <c r="H18" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="8">
-        <v>951.52919999999995</v>
-      </c>
-      <c r="O18" s="7">
-        <v>202205</v>
-      </c>
-      <c r="P18" s="7">
-        <v>202205</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44606</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19">
-        <v>388.88889999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B20" s="10">
-        <v>44607</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B21" s="10">
-        <v>44613</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21">
-        <v>204.16669999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B22" s="10">
-        <v>44614</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B23" s="10">
-        <v>44614</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B24" s="10">
-        <v>44614</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B25" s="10">
-        <v>44620</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25">
-        <v>204.16669999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B26" s="10">
-        <v>44634</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26">
-        <v>408.33330000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B27" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B28" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28">
-        <v>-594.44439999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B29" s="10">
-        <v>44635</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <v>-905.55560000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B30" s="10">
-        <v>44644</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>290.0154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B31" s="10">
-        <v>44645</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B32" s="10">
-        <v>44651</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>216.62190000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B33" s="10">
-        <v>44670</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33">
-        <v>587.97379999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B34" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B35" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35">
-        <v>-905.38890000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B36" s="10">
-        <v>44671</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36">
-        <v>-1094.6111000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B37" s="10">
-        <v>44681</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37">
-        <v>337.63940000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B38" s="10">
-        <v>44712</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38">
-        <v>951.52919999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B39" s="10">
-        <v>44712</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39">
-        <v>-404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>44712</v>
-      </c>
-      <c r="B40" s="10">
-        <v>44712</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40">
-        <v>-1.2343999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:Q18">
-    <sortCondition ref="H2:H18"/>
-    <sortCondition ref="I2:I18"/>
-    <sortCondition ref="J2:J18"/>
-    <sortCondition ref="K2:K18"/>
-    <sortCondition ref="L2:L18"/>
-    <sortCondition ref="N2:N18"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
@@ -1,44 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8B87C-EB72-44C2-A1B9-D0426334A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
-    <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId3"/>
+    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="O_TransactionActivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="O_TransactionActivity2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Steps</t>
   </si>
@@ -55,15 +35,24 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
+    <t>TestSBO_Replay_Monthly/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
+  </si>
+  <si>
     <t>EVENT_CONFIGURATION</t>
   </si>
   <si>
     <t>CONFIGURATION</t>
   </si>
   <si>
+    <t>TestSBO_Replay_Monthly/EventConfigurations.json</t>
+  </si>
+  <si>
     <t>MODEL_UPLOAD</t>
   </si>
   <si>
+    <t>TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_CONFIGURATION</t>
   </si>
   <si>
@@ -73,33 +62,54 @@
     <t>ACTIVITY_UPLOAD</t>
   </si>
   <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D1.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_EXECUTION</t>
   </si>
   <si>
     <t>EXECUTION</t>
   </si>
   <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D2.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D4.xlsx</t>
+  </si>
+  <si>
     <t>TransactionActivity</t>
   </si>
   <si>
-    <t>postingDate ASC</t>
-  </si>
-  <si>
-    <t>attributeId ASC</t>
-  </si>
-  <si>
-    <t>transactionName ASC</t>
-  </si>
-  <si>
-    <t>source ASC</t>
-  </si>
-  <si>
-    <t>effectiveDate ASC</t>
+    <t xml:space="preserve">{"instrumentId": "IDHJ-EGNY"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postingDate ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributeId ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveDate ASC</t>
   </si>
   <si>
     <t>instrumentId</t>
   </si>
   <si>
+    <t xml:space="preserve">amount ASC</t>
+  </si>
+  <si>
     <t>originalPeriodId</t>
   </si>
   <si>
@@ -112,13 +122,22 @@
     <t>PURCHASE_INTEREST</t>
   </si>
   <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>IDHJ-EGNY</t>
+  </si>
+  <si>
+    <t>PURCHASE_UPB</t>
+  </si>
+  <si>
+    <t>SERVICING_INTEREST_ACCRUAL</t>
+  </si>
+  <si>
     <t>MODEL</t>
   </si>
   <si>
-    <t>PURCHASE_UPB</t>
-  </si>
-  <si>
-    <t>SERVICING_INTEREST_ACCRUAL</t>
+    <t>DRAW</t>
   </si>
   <si>
     <t>PAYMENT_INTEREST</t>
@@ -130,93 +149,47 @@
     <t>REMIT</t>
   </si>
   <si>
-    <t>ETL</t>
-  </si>
-  <si>
     <t>INTEREST_ADJUSTMENT</t>
   </si>
   <si>
     <t>PRINCIPAL_ADJUSTMENT</t>
   </si>
   <si>
-    <t>amount ASC</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "IDHJ-EGNY"}</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/EventConfigurations.json</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D2.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D4.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D1.xlsx</t>
-  </si>
-  <si>
-    <t>DRAW</t>
-  </si>
-  <si>
-    <t>IDHJ-EGNY</t>
+    <t xml:space="preserve">{"instrumentId": "ARWK-RAAM"}</t>
   </si>
   <si>
     <t>ARWK-RAAM</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "ARWK-RAAM"}</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color rgb="FFC77DBB"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,17 +202,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -254,102 +227,33 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="10">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFC77DBB"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,8 +265,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -414,7 +601,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,27 +652,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
+    <col customWidth="1" min="2" max="2" style="1" width="20.140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="42.7109375"/>
+    <col customWidth="1" min="4" max="4" style="1" width="31.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,144 +689,145 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>44620</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>44651</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>44681</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>44712</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -650,63 +836,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" style="1" width="21.7109375"/>
+    <col customWidth="1" min="3" max="3" style="1" width="35.140625"/>
+    <col customWidth="1" min="4" max="7" style="1" width="21.7109375"/>
+    <col customWidth="1" min="8" max="9" style="1" width="23.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" ht="15">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="7">
         <v>20220131</v>
       </c>
@@ -714,18 +899,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9">
         <v>100</v>
       </c>
       <c r="H3" s="7">
@@ -738,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="7">
         <v>20220131</v>
       </c>
@@ -746,18 +931,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9">
         <v>100000</v>
       </c>
       <c r="H4" s="7">
@@ -770,26 +955,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="5">
+      <c r="A5" s="7">
         <v>20220228</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7">
         <v>20220228</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9">
         <v>777.77779999999996</v>
       </c>
       <c r="H5" s="7">
@@ -802,26 +987,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="6">
+      <c r="A6" s="7">
         <v>20220331</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
         <v>20220325</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9">
         <v>7000</v>
       </c>
       <c r="H6" s="7">
@@ -834,26 +1019,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7">
+      <c r="A7" s="7">
         <v>20220331</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="9">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7">
         <v>20220315</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9">
         <v>-1266.6667</v>
       </c>
       <c r="H7" s="7">
@@ -866,26 +1051,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8">
+      <c r="A8" s="7">
         <v>20220331</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7">
         <v>20220315</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9">
         <v>-233.33330000000001</v>
       </c>
       <c r="H8" s="7">
@@ -898,26 +1083,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="7">
         <v>20220331</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7">
         <v>20220315</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9">
         <v>1500</v>
       </c>
       <c r="H9" s="7">
@@ -930,26 +1115,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="7">
         <v>20220331</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="9">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
         <v>20220331</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9">
         <v>873.6203999999999</v>
       </c>
       <c r="H10" s="7">
@@ -962,26 +1147,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="7">
         <v>20220430</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7">
         <v>20220420</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="9">
         <v>-1048.2221999999999</v>
       </c>
       <c r="H11" s="7">
@@ -994,26 +1179,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="7">
         <v>20220430</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7">
         <v>20220420</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9">
         <v>-951.77779999999996</v>
       </c>
       <c r="H12" s="7">
@@ -1026,27 +1211,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="7">
         <v>20220430</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7">
         <v>20220420</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1500</v>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2000</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1058,26 +1243,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="7">
         <v>20220430</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7">
         <v>20220430</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="9">
         <v>886.81399999999996</v>
       </c>
       <c r="H14" s="7">
@@ -1090,26 +1275,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="7">
         <v>20220531</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7">
         <v>20220531</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9">
         <v>-1.2344999999999999</v>
       </c>
       <c r="H15" s="7">
@@ -1122,26 +1307,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="7">
         <v>20220531</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7">
         <v>20220531</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9">
         <v>-404</v>
       </c>
       <c r="H16" s="7">
@@ -1154,26 +1339,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="7">
         <v>20220531</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7">
         <v>20220222</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9">
         <v>400</v>
       </c>
       <c r="H17" s="7">
@@ -1186,26 +1371,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="7">
         <v>20220531</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="9">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7">
         <v>20220531</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9">
         <v>907.70489999999995</v>
       </c>
       <c r="H18" s="7">
@@ -1219,7 +1404,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J18">
+  <sortState ref="A3:J18">
     <sortCondition ref="A3:A18"/>
     <sortCondition ref="B3:B18"/>
     <sortCondition ref="C3:C18"/>
@@ -1227,8 +1412,9 @@
     <sortCondition ref="E3:E18"/>
     <sortCondition ref="G3:G18"/>
   </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1237,63 +1423,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" style="1" width="21.7109375"/>
+    <col customWidth="1" min="3" max="3" style="1" width="35.140625"/>
+    <col customWidth="1" min="4" max="7" style="1" width="21.7109375"/>
+    <col customWidth="1" min="8" max="9" style="1" width="23.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" ht="15">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="7">
         <v>20220131</v>
       </c>
@@ -1301,18 +1486,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9">
         <v>100</v>
       </c>
       <c r="H3" s="7">
@@ -1325,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="7">
         <v>20220131</v>
       </c>
@@ -1333,18 +1518,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9">
         <v>100000</v>
       </c>
       <c r="H4" s="7">
@@ -1357,26 +1542,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="5">
+      <c r="A5" s="7">
         <v>20220228</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
         <v>20220215</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9">
         <v>5000</v>
       </c>
       <c r="H5" s="7">
@@ -1389,26 +1574,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="6">
+      <c r="A6" s="7">
         <v>20220228</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7">
         <v>20220228</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9">
         <v>797.22219999999993</v>
       </c>
       <c r="H6" s="7">
@@ -1421,26 +1606,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7">
+      <c r="A7" s="7">
         <v>20220331</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
         <v>20220325</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9">
         <v>7000</v>
       </c>
       <c r="H7" s="7">
@@ -1453,27 +1638,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8">
+      <c r="A8" s="7">
         <v>20220331</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7">
         <v>20220315</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-1305.5555999999999</v>
+      <c r="F8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-1305.5554999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202203</v>
@@ -1485,27 +1670,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="7">
         <v>20220331</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7">
         <v>20220315</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-194.4444</v>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-194.44450000000001</v>
       </c>
       <c r="H9" s="7">
         <v>202203</v>
@@ -1517,26 +1702,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="7">
         <v>20220331</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
         <v>20220315</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9">
         <v>1500</v>
       </c>
       <c r="H10" s="7">
@@ -1549,26 +1734,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="7">
         <v>20220331</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7">
         <v>20220331</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9">
         <v>916.8596</v>
       </c>
       <c r="H11" s="7">
@@ -1581,27 +1766,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="7">
         <v>20220430</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7">
         <v>20220420</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="8">
-        <v>-1098.6111000000001</v>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9">
+        <v>-1098.6112000000001</v>
       </c>
       <c r="H12" s="7">
         <v>202204</v>
@@ -1613,27 +1798,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="7">
         <v>20220430</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7">
         <v>20220420</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-901.38890000000004</v>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="9">
+        <v>-901.38879999999995</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1645,27 +1830,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="7">
         <v>20220430</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7">
         <v>20220420</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1500</v>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2000</v>
       </c>
       <c r="H14" s="7">
         <v>202204</v>
@@ -1677,26 +1862,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="7">
         <v>20220430</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7">
         <v>20220430</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="9">
         <v>928.95869999999991</v>
       </c>
       <c r="H15" s="7">
@@ -1709,26 +1894,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="7">
         <v>20220531</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7">
         <v>20220531</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="9">
         <v>-1.2343999999999999</v>
       </c>
       <c r="H16" s="7">
@@ -1741,26 +1926,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="7">
         <v>20220531</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7">
         <v>20220531</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="9">
         <v>-404</v>
       </c>
       <c r="H17" s="7">
@@ -1773,26 +1958,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="7">
         <v>20220531</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="9">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7">
         <v>20220222</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="9">
         <v>400</v>
       </c>
       <c r="H18" s="7">
@@ -1805,26 +1990,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="7">
         <v>20220531</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="9">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7">
         <v>20220531</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="9">
         <v>951.52919999999995</v>
       </c>
       <c r="H19" s="7">
@@ -1838,8 +2023,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
@@ -1,24 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7400D9-65E6-4D8C-AB6D-8F89340146AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="O_TransactionActivity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="O_TransactionActivity2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
+    <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
   <si>
     <t>Steps</t>
   </si>
@@ -35,161 +55,168 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
+    <t>EVENT_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
+  </si>
+  <si>
+    <t>MODEL_UPLOAD</t>
+  </si>
+  <si>
+    <t>MODEL_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_UPLOAD</t>
+  </si>
+  <si>
+    <t>MODEL_EXECUTION</t>
+  </si>
+  <si>
+    <t>EXECUTION</t>
+  </si>
+  <si>
+    <t>TransactionActivity</t>
+  </si>
+  <si>
+    <t>postingDate ASC</t>
+  </si>
+  <si>
+    <t>attributeId ASC</t>
+  </si>
+  <si>
+    <t>transactionName ASC</t>
+  </si>
+  <si>
+    <t>source ASC</t>
+  </si>
+  <si>
+    <t>effectiveDate ASC</t>
+  </si>
+  <si>
+    <t>instrumentId</t>
+  </si>
+  <si>
+    <t>originalPeriodId</t>
+  </si>
+  <si>
+    <t>accountingPeriod.periodId</t>
+  </si>
+  <si>
+    <t>isReplayable</t>
+  </si>
+  <si>
+    <t>PURCHASE_INTEREST</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>PURCHASE_UPB</t>
+  </si>
+  <si>
+    <t>SERVICING_INTEREST_ACCRUAL</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST</t>
+  </si>
+  <si>
+    <t>PAYMENT_UPB</t>
+  </si>
+  <si>
+    <t>REMIT</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>INTEREST_ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>PRINCIPAL_ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>amount ASC</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "IDHJ-EGNY"}</t>
+  </si>
+  <si>
     <t>TestSBO_Replay_Monthly/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
   </si>
   <si>
-    <t>EVENT_CONFIGURATION</t>
-  </si>
-  <si>
-    <t>CONFIGURATION</t>
-  </si>
-  <si>
     <t>TestSBO_Replay_Monthly/EventConfigurations.json</t>
   </si>
   <si>
-    <t>MODEL_UPLOAD</t>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D2.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D4.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D1.xlsx</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>IDHJ-EGNY</t>
+  </si>
+  <si>
+    <t>ARWK-RAAM</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "ARWK-RAAM"}</t>
   </si>
   <si>
     <t>TestSBO_Replay_Monthly/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>MODEL_CONFIGURATION</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_UPLOAD</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D1.xlsx</t>
-  </si>
-  <si>
-    <t>MODEL_EXECUTION</t>
-  </si>
-  <si>
-    <t>EXECUTION</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D2.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO_Replay_Monthly/Activity/ActivityData_D4.xlsx</t>
-  </si>
-  <si>
-    <t>TransactionActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"instrumentId": "IDHJ-EGNY"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postingDate ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attributeId ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactionName ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectiveDate ASC</t>
-  </si>
-  <si>
-    <t>instrumentId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount ASC</t>
-  </si>
-  <si>
-    <t>originalPeriodId</t>
-  </si>
-  <si>
-    <t>accountingPeriod.periodId</t>
-  </si>
-  <si>
-    <t>isReplayable</t>
-  </si>
-  <si>
-    <t>PURCHASE_INTEREST</t>
-  </si>
-  <si>
-    <t>ETL</t>
-  </si>
-  <si>
-    <t>IDHJ-EGNY</t>
-  </si>
-  <si>
-    <t>PURCHASE_UPB</t>
-  </si>
-  <si>
-    <t>SERVICING_INTEREST_ACCRUAL</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>DRAW</t>
-  </si>
-  <si>
-    <t>PAYMENT_INTEREST</t>
-  </si>
-  <si>
-    <t>PAYMENT_UPB</t>
-  </si>
-  <si>
-    <t>REMIT</t>
-  </si>
-  <si>
-    <t>INTEREST_ADJUSTMENT</t>
-  </si>
-  <si>
-    <t>PRINCIPAL_ADJUSTMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"instrumentId": "ARWK-RAAM"}</t>
-  </si>
-  <si>
-    <t>ARWK-RAAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color rgb="FFC77DBB"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,17 +229,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="22"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -227,33 +254,102 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFC77DBB"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,291 +361,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -601,7 +414,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,25 +465,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="20.140625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="42.7109375"/>
-    <col customWidth="1" min="4" max="4" style="1" width="31.140625"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,145 +504,144 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>44620</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>44651</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>44681</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>44712</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -836,62 +650,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" style="1" width="21.7109375"/>
-    <col customWidth="1" min="3" max="3" style="1" width="35.140625"/>
-    <col customWidth="1" min="4" max="7" style="1" width="21.7109375"/>
-    <col customWidth="1" min="8" max="9" style="1" width="23.140625"/>
+    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>20220131</v>
       </c>
@@ -899,18 +714,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8">
         <v>100</v>
       </c>
       <c r="H3" s="7">
@@ -923,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>20220131</v>
       </c>
@@ -931,18 +746,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8">
         <v>100000</v>
       </c>
       <c r="H4" s="7">
@@ -955,26 +770,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>20220228</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9">
         <v>20220228</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="8">
         <v>777.77779999999996</v>
       </c>
       <c r="H5" s="7">
@@ -987,26 +802,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>20220331</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9">
         <v>20220325</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8">
         <v>7000</v>
       </c>
       <c r="H6" s="7">
@@ -1019,26 +834,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>20220331</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
         <v>20220315</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="8">
         <v>-1266.6667</v>
       </c>
       <c r="H7" s="7">
@@ -1051,26 +866,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>20220331</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
         <v>20220315</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8">
         <v>-233.33330000000001</v>
       </c>
       <c r="H8" s="7">
@@ -1083,26 +898,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>20220331</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9">
         <v>20220315</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8">
         <v>1500</v>
       </c>
       <c r="H9" s="7">
@@ -1115,26 +930,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>20220331</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
         <v>20220331</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="8">
         <v>873.6203999999999</v>
       </c>
       <c r="H10" s="7">
@@ -1147,26 +962,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="7">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>20220430</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9">
         <v>20220420</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8">
         <v>-1048.2221999999999</v>
       </c>
       <c r="H11" s="7">
@@ -1179,26 +994,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="7">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>20220430</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
         <v>20220420</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8">
         <v>-951.77779999999996</v>
       </c>
       <c r="H12" s="7">
@@ -1211,27 +1026,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="7">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>20220430</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9">
         <v>20220420</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2000</v>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1500</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1243,26 +1058,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="7">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>20220430</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="7">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
         <v>20220430</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8">
         <v>886.81399999999996</v>
       </c>
       <c r="H14" s="7">
@@ -1275,26 +1090,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="7">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>20220531</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20220531</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>-1.2344999999999999</v>
       </c>
       <c r="H15" s="7">
@@ -1307,26 +1122,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="7">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>20220531</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
         <v>20220531</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8">
         <v>-404</v>
       </c>
       <c r="H16" s="7">
@@ -1339,26 +1154,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="7">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>20220531</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="7">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9">
         <v>20220222</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8">
         <v>400</v>
       </c>
       <c r="H17" s="7">
@@ -1371,27 +1186,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="7">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>20220531</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9">
         <v>20220531</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="9">
-        <v>907.70489999999995</v>
+      <c r="F18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="8">
+        <v>904.226</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>
@@ -1404,7 +1219,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J18">
     <sortCondition ref="A3:A18"/>
     <sortCondition ref="B3:B18"/>
     <sortCondition ref="C3:C18"/>
@@ -1412,9 +1227,8 @@
     <sortCondition ref="E3:E18"/>
     <sortCondition ref="G3:G18"/>
   </sortState>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1423,62 +1237,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" style="1" width="21.7109375"/>
-    <col customWidth="1" min="3" max="3" style="1" width="35.140625"/>
-    <col customWidth="1" min="4" max="7" style="1" width="21.7109375"/>
-    <col customWidth="1" min="8" max="9" style="1" width="23.140625"/>
+    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>20220131</v>
       </c>
@@ -1486,18 +1301,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8">
         <v>100</v>
       </c>
       <c r="H3" s="7">
@@ -1510,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>20220131</v>
       </c>
@@ -1518,18 +1333,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8">
         <v>100000</v>
       </c>
       <c r="H4" s="7">
@@ -1542,26 +1357,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>20220228</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9">
         <v>20220215</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8">
         <v>5000</v>
       </c>
       <c r="H5" s="7">
@@ -1574,26 +1389,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>20220228</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9">
         <v>20220228</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8">
         <v>797.22219999999993</v>
       </c>
       <c r="H6" s="7">
@@ -1606,26 +1421,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>20220331</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9">
         <v>20220325</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8">
         <v>7000</v>
       </c>
       <c r="H7" s="7">
@@ -1638,27 +1453,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>20220331</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
         <v>20220315</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9">
-        <v>-1305.5554999999999</v>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-1305.5555999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202203</v>
@@ -1670,27 +1485,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>20220331</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
         <v>20220315</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="9">
-        <v>-194.44450000000001</v>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-194.4444</v>
       </c>
       <c r="H9" s="7">
         <v>202203</v>
@@ -1702,26 +1517,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>20220331</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9">
         <v>20220315</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="8">
         <v>1500</v>
       </c>
       <c r="H10" s="7">
@@ -1734,26 +1549,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="7">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>20220331</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9">
         <v>20220331</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8">
         <v>916.8596</v>
       </c>
       <c r="H11" s="7">
@@ -1766,27 +1581,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="7">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>20220430</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
         <v>20220420</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="9">
-        <v>-1098.6112000000001</v>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-1098.6111000000001</v>
       </c>
       <c r="H12" s="7">
         <v>202204</v>
@@ -1798,27 +1613,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="7">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>20220430</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
         <v>20220420</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="9">
-        <v>-901.38879999999995</v>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-901.38890000000004</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1830,27 +1645,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="7">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>20220430</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9">
         <v>20220420</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2000</v>
+      <c r="F14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1500</v>
       </c>
       <c r="H14" s="7">
         <v>202204</v>
@@ -1862,26 +1677,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="7">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>20220430</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9">
         <v>20220430</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8">
         <v>928.95869999999991</v>
       </c>
       <c r="H15" s="7">
@@ -1894,26 +1709,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="7">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>20220531</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
         <v>20220531</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8">
         <v>-1.2343999999999999</v>
       </c>
       <c r="H16" s="7">
@@ -1926,26 +1741,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="7">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>20220531</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="7">
-        <v>20220531</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>-404</v>
       </c>
       <c r="H17" s="7">
@@ -1958,26 +1773,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="7">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>20220531</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9">
         <v>20220222</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8">
         <v>400</v>
       </c>
       <c r="H18" s="7">
@@ -1990,27 +1805,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="7">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>20220531</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9">
         <v>20220531</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="9">
-        <v>951.52919999999995</v>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8">
+        <v>948.05029999999999</v>
       </c>
       <c r="H19" s="7">
         <v>202205</v>
@@ -2023,9 +1838,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7400D9-65E6-4D8C-AB6D-8F89340146AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248A6A-0AC3-4812-A4F4-A000B10D704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1046,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="8">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="8">
-        <v>-1305.5555999999999</v>
+        <v>-1305.5554999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202203</v>
@@ -1505,7 +1505,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="8">
-        <v>-194.4444</v>
+        <v>-194.44450000000001</v>
       </c>
       <c r="H9" s="7">
         <v>202203</v>
@@ -1601,7 +1601,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="8">
-        <v>-1098.6111000000001</v>
+        <v>-1098.6112000000001</v>
       </c>
       <c r="H12" s="7">
         <v>202204</v>
@@ -1633,7 +1633,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="8">
-        <v>-901.38890000000004</v>
+        <v>-901.38879999999995</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1665,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="8">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="7">
         <v>202204</v>
